--- a/database/raw_data/realtion_db/좋은제약_실적자료_윤수아_2.xlsx
+++ b/database/raw_data/realtion_db/좋은제약_실적자료_윤수아_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Storage_docs\raw_data_enhanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Narutalk_V003\beta_v0031\database\raw_data\realtion_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AAF5ED-5893-4F71-A157-23D228D07143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B5A827-E02E-4C06-A0B9-789AFC4ACC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="26880" windowWidth="29040" windowHeight="15720" xr2:uid="{BD7103A7-68BD-450F-8531-ACEC32F3E632}"/>
+    <workbookView xWindow="2580" yWindow="10290" windowWidth="21600" windowHeight="12670" xr2:uid="{BD7103A7-68BD-450F-8531-ACEC32F3E632}"/>
   </bookViews>
   <sheets>
     <sheet name="좋은제약_실적자료_윤수아_수정본_증가" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="177">
   <si>
     <t>담당자</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>품목</t>
@@ -568,6 +565,9 @@
   </si>
   <si>
     <t>척척이비인후과</t>
+  </si>
+  <si>
+    <t>거래처ID</t>
   </si>
 </sst>
 </file>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C050748A-98BE-4CCA-BFFD-756CB5A70BC0}">
   <dimension ref="A1:AB304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1553,16 +1553,16 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1">
         <v>202212</v>
@@ -1639,16 +1639,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
       <c r="E2">
         <v>79864</v>
@@ -1725,16 +1725,16 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1811,16 +1811,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1467221</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1723</v>
@@ -1983,16 +1983,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>4401</v>
@@ -2069,16 +2069,16 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>2864</v>
@@ -2241,16 +2241,16 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>4186</v>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>806</v>
@@ -2413,16 +2413,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>472</v>
@@ -2499,16 +2499,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>7524</v>
@@ -2585,16 +2585,16 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>6843</v>
@@ -2671,16 +2671,16 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>7333</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>50571</v>
@@ -2843,16 +2843,16 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>11880</v>
@@ -3015,16 +3015,16 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>776091</v>
@@ -3101,16 +3101,16 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>239247</v>
@@ -3187,16 +3187,16 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>415182</v>
@@ -3273,16 +3273,16 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>111323</v>
@@ -3359,16 +3359,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>8457</v>
@@ -3445,16 +3445,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>8571</v>
@@ -3531,16 +3531,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
         <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>40939</v>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>24110</v>
@@ -3789,16 +3789,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>13591</v>
@@ -3875,16 +3875,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>9932</v>
@@ -3961,16 +3961,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>19182</v>
@@ -4047,16 +4047,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>1870</v>
@@ -4133,16 +4133,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>26552</v>
@@ -4219,16 +4219,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>89842</v>
@@ -4305,16 +4305,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4391,16 +4391,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>10671</v>
@@ -4477,16 +4477,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>13390</v>
@@ -4563,16 +4563,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4649,16 +4649,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>925</v>
@@ -4735,16 +4735,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>22320</v>
@@ -4821,16 +4821,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>53543</v>
@@ -4907,16 +4907,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>15011</v>
@@ -4993,16 +4993,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5079,16 +5079,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>13619</v>
@@ -5251,16 +5251,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>7261</v>
@@ -5337,16 +5337,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>1350</v>
@@ -5423,16 +5423,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>91144</v>
@@ -5509,16 +5509,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>5170</v>
@@ -5595,16 +5595,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
         <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
       </c>
       <c r="E48">
         <v>8515</v>
@@ -5681,16 +5681,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>4574982</v>
@@ -5767,16 +5767,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>120567</v>
@@ -5853,16 +5853,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>146243</v>
@@ -5939,16 +5939,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>49768</v>
@@ -6025,16 +6025,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>18889</v>
@@ -6111,16 +6111,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>18479</v>
@@ -6197,16 +6197,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>170132</v>
@@ -6283,16 +6283,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56">
         <v>28101</v>
@@ -6369,16 +6369,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57">
         <v>3936</v>
@@ -6455,16 +6455,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>39581</v>
@@ -6541,16 +6541,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59">
         <v>119774</v>
@@ -6627,16 +6627,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>4081</v>
@@ -6713,16 +6713,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>20820</v>
@@ -6799,16 +6799,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>17550</v>
@@ -6885,16 +6885,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>1687</v>
@@ -6971,16 +6971,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>384284</v>
@@ -7057,16 +7057,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>59486</v>
@@ -7143,16 +7143,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -7229,16 +7229,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E67">
         <v>2966</v>
@@ -7315,16 +7315,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>1850</v>
@@ -7401,16 +7401,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69">
         <v>7787</v>
@@ -7487,16 +7487,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>133394</v>
@@ -7573,16 +7573,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71">
         <v>22578</v>
@@ -7659,16 +7659,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -7745,16 +7745,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -7831,16 +7831,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>6177</v>
@@ -7917,16 +7917,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>555074</v>
@@ -8003,16 +8003,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>188133</v>
@@ -8089,16 +8089,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77">
         <v>62358</v>
@@ -8175,16 +8175,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>312387</v>
@@ -8261,16 +8261,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E79">
         <v>148128</v>
@@ -8347,16 +8347,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>337490</v>
@@ -8433,16 +8433,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <v>13818</v>
@@ -8519,16 +8519,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82">
         <v>64014</v>
@@ -8605,16 +8605,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E83">
         <v>172996</v>
@@ -8691,16 +8691,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84">
         <v>219721</v>
@@ -8777,16 +8777,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>33221</v>
@@ -8863,16 +8863,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E86">
         <v>9526</v>
@@ -8949,16 +8949,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87">
         <v>2015</v>
@@ -9035,16 +9035,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>6940</v>
@@ -9121,16 +9121,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89">
         <v>318936</v>
@@ -9207,16 +9207,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E90">
         <v>1230539</v>
@@ -9293,16 +9293,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -9379,16 +9379,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E92">
         <v>37646</v>
@@ -9465,16 +9465,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -9551,16 +9551,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E94">
         <v>85214</v>
@@ -9637,16 +9637,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95">
         <v>1626745</v>
@@ -9723,16 +9723,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96">
         <v>19987</v>
@@ -9809,16 +9809,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97">
         <v>10709</v>
@@ -9895,16 +9895,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98">
         <v>1417022</v>
@@ -9981,16 +9981,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E99">
         <v>105430</v>
@@ -10067,16 +10067,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -10153,16 +10153,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -10239,16 +10239,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102">
         <v>3295</v>
@@ -10325,16 +10325,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -10411,16 +10411,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104">
         <v>834</v>
@@ -10497,16 +10497,16 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -10583,16 +10583,16 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E106">
         <v>1622</v>
@@ -10669,16 +10669,16 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -10755,16 +10755,16 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -10841,16 +10841,16 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E109">
         <v>43345</v>
@@ -10927,16 +10927,16 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -11013,16 +11013,16 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111">
         <v>21874</v>
@@ -11099,16 +11099,16 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>4049</v>
@@ -11185,16 +11185,16 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E113">
         <v>122599</v>
@@ -11271,16 +11271,16 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114">
         <v>7957</v>
@@ -11357,16 +11357,16 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -11443,16 +11443,16 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E116">
         <v>1592</v>
@@ -11529,16 +11529,16 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E117">
         <v>1124</v>
@@ -11615,16 +11615,16 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E118">
         <v>8891</v>
@@ -11701,16 +11701,16 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E119">
         <v>2126</v>
@@ -11787,16 +11787,16 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E120">
         <v>210707</v>
@@ -11873,16 +11873,16 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -11959,16 +11959,16 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -12045,16 +12045,16 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -12131,16 +12131,16 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E124">
         <v>87827</v>
@@ -12217,16 +12217,16 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E125">
         <v>71747</v>
@@ -12303,16 +12303,16 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E126">
         <v>7486</v>
@@ -12389,16 +12389,16 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -12475,16 +12475,16 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E128">
         <v>36966</v>
@@ -12561,16 +12561,16 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E129">
         <v>323263</v>
@@ -12647,16 +12647,16 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>1254826</v>
@@ -12733,16 +12733,16 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E131">
         <v>49555</v>
@@ -12819,16 +12819,16 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -12905,16 +12905,16 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -12991,16 +12991,16 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E134">
         <v>1751059</v>
@@ -13077,16 +13077,16 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E135">
         <v>418610</v>
@@ -13163,16 +13163,16 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E136">
         <v>7617</v>
@@ -13249,16 +13249,16 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E137">
         <v>317894</v>
@@ -13335,16 +13335,16 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -13421,16 +13421,16 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E139">
         <v>615</v>
@@ -13507,16 +13507,16 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E140">
         <v>48904</v>
@@ -13593,16 +13593,16 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E141">
         <v>96686</v>
@@ -13679,16 +13679,16 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E142">
         <v>251026</v>
@@ -13765,16 +13765,16 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D143" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -13851,16 +13851,16 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E144">
         <v>9657</v>
@@ -13937,16 +13937,16 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E145">
         <v>8948</v>
@@ -14023,16 +14023,16 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E146">
         <v>25182</v>
@@ -14109,16 +14109,16 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E147">
         <v>41226</v>
@@ -14195,16 +14195,16 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -14281,16 +14281,16 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E149">
         <v>16184</v>
@@ -14367,16 +14367,16 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D150" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -14453,16 +14453,16 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -14539,16 +14539,16 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -14625,16 +14625,16 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -14711,16 +14711,16 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -14797,16 +14797,16 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -14883,16 +14883,16 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -14969,16 +14969,16 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -15055,16 +15055,16 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -15141,16 +15141,16 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -15227,16 +15227,16 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -15313,16 +15313,16 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -15399,16 +15399,16 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D162" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -15485,16 +15485,16 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -15571,16 +15571,16 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164">
         <v>53299</v>
@@ -15657,16 +15657,16 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E165">
         <v>363757</v>
@@ -15743,16 +15743,16 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D166" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E166">
         <v>10366</v>
@@ -15829,16 +15829,16 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E167">
         <v>967</v>
@@ -15915,16 +15915,16 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D168" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E168">
         <v>24015</v>
@@ -16001,16 +16001,16 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E169">
         <v>2701</v>
@@ -16087,16 +16087,16 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -16173,16 +16173,16 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -16259,16 +16259,16 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -16345,16 +16345,16 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D173" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E173">
         <v>44727</v>
@@ -16431,16 +16431,16 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E174">
         <v>276425</v>
@@ -16517,16 +16517,16 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E175">
         <v>461375</v>
@@ -16603,16 +16603,16 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D176" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -16689,16 +16689,16 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D177" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E177">
         <v>41046</v>
@@ -16775,16 +16775,16 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E178">
         <v>579</v>
@@ -16861,16 +16861,16 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D179" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -16947,16 +16947,16 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D180" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -17033,16 +17033,16 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D181" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E181">
         <v>154773</v>
@@ -17119,16 +17119,16 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D182" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -17205,16 +17205,16 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E183">
         <v>8533</v>
@@ -17291,16 +17291,16 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E184">
         <v>26488</v>
@@ -17377,16 +17377,16 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D185" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E185">
         <v>129484</v>
@@ -17463,16 +17463,16 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D186" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -17549,16 +17549,16 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D187" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E187">
         <v>5828</v>
@@ -17635,16 +17635,16 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E188">
         <v>7939</v>
@@ -17721,16 +17721,16 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D189" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E189">
         <v>4350</v>
@@ -17807,16 +17807,16 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E190">
         <v>1209</v>
@@ -17893,16 +17893,16 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E191">
         <v>54956</v>
@@ -17979,16 +17979,16 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D192" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -18065,16 +18065,16 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
+        <v>172</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
         <v>173</v>
       </c>
-      <c r="B193" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" t="s">
-        <v>174</v>
-      </c>
       <c r="D193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -18151,16 +18151,16 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
+        <v>172</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
         <v>173</v>
       </c>
-      <c r="B194" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" t="s">
-        <v>174</v>
-      </c>
       <c r="D194" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -18237,16 +18237,16 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
+        <v>172</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
         <v>173</v>
       </c>
-      <c r="B195" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" t="s">
-        <v>174</v>
-      </c>
       <c r="D195" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -18323,16 +18323,16 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
         <v>173</v>
       </c>
-      <c r="B196" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" t="s">
-        <v>174</v>
-      </c>
       <c r="D196" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -18409,16 +18409,16 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D197" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E197">
         <v>37044</v>
@@ -18495,16 +18495,16 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D198" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -18581,16 +18581,16 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D199" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E199">
         <v>56689</v>
@@ -18667,16 +18667,16 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D200" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E200">
         <v>1390</v>
@@ -18753,16 +18753,16 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D201" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -18839,16 +18839,16 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D202" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -18925,16 +18925,16 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D203" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E203">
         <v>203677</v>
@@ -19011,16 +19011,16 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D204" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E204">
         <v>74379</v>
@@ -19097,16 +19097,16 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E205">
         <v>57740</v>
@@ -19183,16 +19183,16 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D206" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E206">
         <v>7990</v>
@@ -19269,16 +19269,16 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D207" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -19355,16 +19355,16 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D208" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E208">
         <v>557168</v>
@@ -19441,16 +19441,16 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D209" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E209">
         <v>412263</v>
@@ -19527,16 +19527,16 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E210">
         <v>410950</v>
@@ -19613,16 +19613,16 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E211">
         <v>312758</v>
@@ -19699,16 +19699,16 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D212" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E212">
         <v>490435</v>
@@ -19785,16 +19785,16 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D213" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E213">
         <v>5341</v>
@@ -19871,16 +19871,16 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E214">
         <v>28999</v>
@@ -19957,16 +19957,16 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D215" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E215">
         <v>4616</v>
@@ -20043,16 +20043,16 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D216" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -20129,16 +20129,16 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E217">
         <v>86272</v>
@@ -20215,16 +20215,16 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D218" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -20301,16 +20301,16 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D219" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E219">
         <v>404</v>
@@ -20387,16 +20387,16 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E220">
         <v>2341</v>
@@ -20473,16 +20473,16 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D221" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E221">
         <v>4621</v>
@@ -20559,16 +20559,16 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D222" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E222">
         <v>2219</v>
@@ -20645,16 +20645,16 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D223" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -20731,16 +20731,16 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D224" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E224">
         <v>1828</v>
@@ -20817,16 +20817,16 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -20903,16 +20903,16 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D226" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E226">
         <v>6650</v>
@@ -20989,16 +20989,16 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D227" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -21075,16 +21075,16 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D228" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -21161,16 +21161,16 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E229">
         <v>1117</v>
@@ -21247,16 +21247,16 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D230" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E230">
         <v>129133</v>
@@ -21333,16 +21333,16 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D231" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E231">
         <v>20471</v>
@@ -21419,16 +21419,16 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D232" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E232">
         <v>76141</v>
@@ -21505,16 +21505,16 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D233" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E233">
         <v>385439</v>
@@ -21591,16 +21591,16 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E234">
         <v>339532</v>
@@ -21677,16 +21677,16 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D235" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E235">
         <v>219349</v>
@@ -21763,16 +21763,16 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D236" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E236">
         <v>555151</v>
@@ -21849,16 +21849,16 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D237" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E237">
         <v>45639</v>
@@ -21935,16 +21935,16 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D238" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E238">
         <v>190226</v>
@@ -22021,16 +22021,16 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D239" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E239">
         <v>46969</v>
@@ -22107,16 +22107,16 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D240" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E240">
         <v>424837</v>
@@ -22193,16 +22193,16 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D241" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E241">
         <v>694892</v>
@@ -22279,16 +22279,16 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E242">
         <v>144458</v>
@@ -22365,16 +22365,16 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -22451,16 +22451,16 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D244" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -22537,16 +22537,16 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D245" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -22623,16 +22623,16 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D246" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E246">
         <v>48033</v>
@@ -22709,16 +22709,16 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D247" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -22795,16 +22795,16 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -22881,16 +22881,16 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D249" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E249">
         <v>159122</v>
@@ -22967,16 +22967,16 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D250" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -23053,16 +23053,16 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D251" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E251">
         <v>65335</v>
@@ -23139,16 +23139,16 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D252" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E252">
         <v>7277</v>
@@ -23225,16 +23225,16 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D253" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E253">
         <v>33200</v>
@@ -23311,16 +23311,16 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D254" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E254">
         <v>1045894</v>
@@ -23397,16 +23397,16 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D255" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E255">
         <v>1069931</v>
@@ -23483,16 +23483,16 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D256" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E256">
         <v>147153</v>
@@ -23569,16 +23569,16 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D257" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -23655,16 +23655,16 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D258" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E258">
         <v>395356</v>
@@ -23741,16 +23741,16 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D259" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -23827,16 +23827,16 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D260" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -23913,16 +23913,16 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D261" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -23999,16 +23999,16 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D262" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -24085,16 +24085,16 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B263" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D263" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -24171,16 +24171,16 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D264" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -24257,16 +24257,16 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D265" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -24343,16 +24343,16 @@
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D266" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -24429,16 +24429,16 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -24515,16 +24515,16 @@
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D268" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -24601,16 +24601,16 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D269" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -24687,16 +24687,16 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D270" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -24773,16 +24773,16 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D271" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -24859,16 +24859,16 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B272" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D272" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -24945,16 +24945,16 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D273" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -25031,16 +25031,16 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D274" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -25117,16 +25117,16 @@
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -25203,16 +25203,16 @@
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D276" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E276">
         <v>992047</v>
@@ -25289,16 +25289,16 @@
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D277" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E277">
         <v>241172</v>
@@ -25375,16 +25375,16 @@
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D278" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E278">
         <v>81660</v>
@@ -25461,16 +25461,16 @@
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D279" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E279">
         <v>985464</v>
@@ -25547,16 +25547,16 @@
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D280" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E280">
         <v>42813</v>
@@ -25633,16 +25633,16 @@
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D281" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E281">
         <v>68665</v>
@@ -25719,16 +25719,16 @@
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D282" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E282">
         <v>30306</v>
@@ -25805,16 +25805,16 @@
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D283" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E283">
         <v>406205</v>
@@ -25891,16 +25891,16 @@
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D284" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -25977,16 +25977,16 @@
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D285" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E285">
         <v>7464</v>
@@ -26063,16 +26063,16 @@
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D286" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E286">
         <v>506</v>
@@ -26149,16 +26149,16 @@
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D287" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E287">
         <v>25127</v>
@@ -26235,16 +26235,16 @@
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D288" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E288">
         <v>6356</v>
@@ -26321,16 +26321,16 @@
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B289" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D289" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E289">
         <v>173270</v>
@@ -26407,16 +26407,16 @@
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D290" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E290">
         <v>1829</v>
@@ -26493,16 +26493,16 @@
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E291">
         <v>218</v>
@@ -26579,16 +26579,16 @@
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D292" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E292">
         <v>1990</v>
@@ -26665,16 +26665,16 @@
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D293" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -26751,16 +26751,16 @@
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B294" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D294" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E294">
         <v>273</v>
@@ -26837,16 +26837,16 @@
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D295" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E295">
         <v>125587</v>
@@ -26923,16 +26923,16 @@
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D296" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E296">
         <v>9734</v>
@@ -27009,16 +27009,16 @@
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B297" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D297" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -27095,16 +27095,16 @@
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D298" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -27181,16 +27181,16 @@
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D299" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E299">
         <v>404159</v>
@@ -27267,16 +27267,16 @@
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B300" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D300" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -27353,16 +27353,16 @@
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B301" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D301" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -27439,16 +27439,16 @@
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B302" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D302" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E302">
         <v>9714</v>
@@ -27525,16 +27525,16 @@
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B303" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D303" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E303">
         <v>51628</v>
@@ -27611,16 +27611,16 @@
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D304" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E304">
         <v>28280</v>
